--- a/biology/Botanique/Liste_des_roses_d'Allemagne_de_l'Est/Liste_des_roses_d'Allemagne_de_l'Est.xlsx
+++ b/biology/Botanique/Liste_des_roses_d'Allemagne_de_l'Est/Liste_des_roses_d'Allemagne_de_l'Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les roses d'Allemagne de l'Est, ou de RDA, sont des cultivars de rosiers particulièrement résistants au froid qui ont été obtenus pendant les années de l'existence de ce pays, essentiellement pour les marchés privés, à partir de 1954. La première obtention a été celle de 'Bad Langensalza', de Walter Berger, en 1954, puis de nouvelles roses ont été créées en particulier dans la coopérative agricole de jardinerie Octobre rouge (Roter Oktober). Dans leur grande majorité, ces roses, toujours présentées en Allemagne, notamment à la roseraie de Dresde, sont issues d'hybrides de thé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Recouvrant
-1989 'Spitzenschleier', école de botanique de Dresde, rose
-Rosier floribunda
-1980 'Abendrot', obtenteur: Klein, rose
+          <t>Recouvrant</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1989 'Spitzenschleier', école de botanique de Dresde, rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rosier floribunda</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1980 'Abendrot', obtenteur: Klein, rose
 1990 'Akzent', école de botanique de Dresde, jaune
 1986 'Anita', entreprise de plantes ornementales de Dresde, rose
 1975 'Apart', coopérative Roter Oktober, rouge
@@ -585,18 +636,120 @@
 1987 'Variete', institut de botanique de Dresde, rouge
 1975 'Weißes Meer', institut de botanique de Dresde
 1958 'Wiener Blut', Berger, rouge
-1954 'Zigeunerbaron', Berger, rouge
-Floribunda grandiflora
-1972 'Variant', école de botanique de Dresde, blanc
-Grimpant
-1984 'Expreß', école de botanique de Dresde, rose
+1954 'Zigeunerbaron', Berger, rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Floribunda grandiflora</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1972 'Variant', école de botanique de Dresde, blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grimpant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1984 'Expreß', école de botanique de Dresde, rose
 1981 'Kontrast', coopérative Roter Oktober, rouge
 1981 'Rosenfest', coopérative Roter Oktober, rouge
 1969 'Schloß Dryburg', coopérative Roter Oktober, jaune
 1969 'Schwarzer Samt', Viktor Teschendorff, rouge foncé
-1959 'Weiße New Dawn', Berger, blanc
-Hybride de polyantha
-1975 'Aladin', école de botanique de Dresde, rouge
+1959 'Weiße New Dawn', Berger, blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hybride de polyantha</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1975 'Aladin', école de botanique de Dresde, rouge
 1978 'Arabella', Schmadlak, rouge
 1973 'Aspekt', école de botanique de Dresde, rouge
 1972 'Bernstein', école de botanique de Dresde, jaune
@@ -641,9 +794,43 @@
 1978 'Start', école de botanique de Dresde, jaune
 1970 'Suleika', Zickler
 1980 'Trix', école de botanique de Dresde, couleur orange
-1977 'Ulrike', Schmadlak, rose
-Rosier buisson
-1973 'Abraxas', école de botanique de Dresde, rouge
+1977 'Ulrike', Schmadlak, rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rosier buisson</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1973 'Abraxas', école de botanique de Dresde, rouge
 1974 'Alte Liebe', coopérative Roter Oktober, rouge
 1978 'Arabella', école de botanique de Dresde, rouge
 1987 'Ballade', coopérative Roter Oktober, rouge
@@ -669,9 +856,43 @@
 1979 'Varna', coopérative Roter Oktober, couleur orange
 1977 'Wartburg', coopérative Roter Oktober, jaune
 1959 'Wehrinsel', Berger, rouge
-1964 'Wörlitz', coopérative Roter Oktober, jaune
-Hybride de thé
-1972 'Abu', école de botanique de Dresde, rose
+1964 'Wörlitz', coopérative Roter Oktober, jaune</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hybride de thé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1972 'Abu', école de botanique de Dresde, rose
 1979 'Adagio', coopérative Roter Oktober, rouge
 1975 'Aladin', coopérative Roter Oktober, rouge
 1974 'Alte Liebe', coopérative Roter Oktober, rouge
@@ -740,39 +961,75 @@
 1985 'Symbol', école de botanique de Dresde, rouge
 1983 'Trend', école de botanique de Dresde, rouge
 1965 'Undine', institut botanique de Köpenick, rouge
-1981 'Vulkan', école de botanique de Dresde, rouge
-Rosier nain
-1976 'Minirosa', école de botanique de Dresde, rose
+1981 'Vulkan', école de botanique de Dresde, rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des rosiers d'Allemagne de l'Est</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rosier nain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1976 'Minirosa', école de botanique de Dresde, rose
 1976 'Minirot', école de botanique de Dresde, rouge
 1976 'Soliman', école de botanique de Dresden, rouge</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_roses_d%27Allemagne_de_l%27Est</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_roses_d'Allemagne_de_l'Est</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_roses_d%27Allemagne_de_l%27Est</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Site officiel de la roseraie de Dresde
  Portail des roses et rosiers   Portail de la République démocratique allemande                    </t>
